--- a/documents/social-network-planing.xlsx
+++ b/documents/social-network-planing.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samara Jimenez\Documents\proyectos-laboratoria\sprint3\Producto Final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samara Jimenez\Documents\proyectos-laboratoria\sprint3\Producto Final\social-network\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -198,7 +198,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -297,6 +297,14 @@
       <name val="Corbel"/>
       <family val="2"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="13"/>
+      <color theme="7"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -485,7 +493,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -596,6 +604,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" xfId="6" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -1009,7 +1020,7 @@
   <dimension ref="B1:BO21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1352,10 +1363,10 @@
         <v>3</v>
       </c>
       <c r="F8" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G8" s="8">
-        <v>0.85</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1375,7 +1386,7 @@
         <v>3</v>
       </c>
       <c r="G9" s="8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1392,10 +1403,10 @@
         <v>4</v>
       </c>
       <c r="F10" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G10" s="8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1435,7 +1446,7 @@
         <v>3</v>
       </c>
       <c r="G12" s="8">
-        <v>0.6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1449,13 +1460,13 @@
         <v>6</v>
       </c>
       <c r="E13" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F13" s="7">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G13" s="8">
-        <v>0.2</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="14" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1472,10 +1483,10 @@
         <v>6</v>
       </c>
       <c r="F14" s="7">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G14" s="8">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="15" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1495,7 +1506,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="8">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="16" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1514,8 +1525,8 @@
       <c r="F16" s="7">
         <v>1</v>
       </c>
-      <c r="G16" s="8">
-        <v>0</v>
+      <c r="G16" s="37">
+        <v>0.2</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1535,7 +1546,7 @@
         <v>1</v>
       </c>
       <c r="G17" s="8">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
